--- a/out/reports/xlsx/exchange-rates-2020-may.xlsx
+++ b/out/reports/xlsx/exchange-rates-2020-may.xlsx
@@ -146,7 +146,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
+        <fgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -280,14 +285,18 @@
       <protection hidden="false" locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="13" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="14" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="top"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="15" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="14" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="15" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="16" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="false"/>
     </xf>
@@ -314,17 +323,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="3.3333333"/>
-    <col min="2" max="2" customWidth="1" width="16.666666"/>
-    <col min="3" max="3" customWidth="1" width="6.3333335"/>
-    <col min="4" max="4" customWidth="1" width="23.0"/>
-    <col min="5" max="5" customWidth="1" width="9.0"/>
-    <col min="6" max="6" customWidth="1" width="14.0"/>
-    <col min="7" max="7" customWidth="1" width="11.0"/>
-    <col min="8" max="8" customWidth="1" width="5.8333335"/>
-    <col min="9" max="9" customWidth="1" width="6.1666665"/>
-    <col min="10" max="10" customWidth="1" width="0.5"/>
-    <col min="11" max="11" customWidth="1" width="0.8333333"/>
-    <col min="12" max="12" customWidth="1" width="2.5"/>
+    <col min="2" max="2" customWidth="1" width="23.0"/>
+    <col min="3" max="3" customWidth="1" width="23.0"/>
+    <col min="4" max="4" customWidth="1" width="9.0"/>
+    <col min="5" max="5" customWidth="1" width="14.0"/>
+    <col min="6" max="6" customWidth="1" width="11.0"/>
+    <col min="7" max="7" customWidth="1" width="5.8333335"/>
+    <col min="8" max="8" customWidth="1" width="6.1666665"/>
+    <col min="9" max="9" customWidth="1" width="0.5"/>
+    <col min="10" max="10" customWidth="1" width="0.8333333"/>
+    <col min="11" max="11" customWidth="1" width="2.5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="20">
@@ -339,7 +347,6 @@
       <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr"/>
       <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr"/>
     </row>
     <row r="2" customHeight="1" ht="40">
       <c r="A2" s="1" t="inlineStr"/>
@@ -352,34 +359,32 @@
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
       <c r="F2" s="4" t="inlineStr"/>
       <c r="G2" s="4" t="inlineStr"/>
       <c r="H2" s="4" t="inlineStr"/>
       <c r="I2" s="4" t="inlineStr"/>
       <c r="J2" s="4" t="inlineStr"/>
-      <c r="K2" s="4" t="inlineStr"/>
-      <c r="L2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr"/>
     </row>
     <row r="3" customHeight="1" ht="3">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
       <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">May, 2020</t>
           </r>
         </is>
       </c>
+      <c r="H3" s="6" t="inlineStr"/>
       <c r="I3" s="6" t="inlineStr"/>
       <c r="J3" s="6" t="inlineStr"/>
-      <c r="K3" s="6" t="inlineStr"/>
-      <c r="L3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
     </row>
     <row r="4" customHeight="1" ht="17">
       <c r="A4" s="1" t="inlineStr"/>
@@ -388,12 +393,11 @@
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
+      <c r="G4" s="6" t="inlineStr"/>
       <c r="H4" s="6" t="inlineStr"/>
       <c r="I4" s="6" t="inlineStr"/>
       <c r="J4" s="6" t="inlineStr"/>
-      <c r="K4" s="6" t="inlineStr"/>
-      <c r="L4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
     </row>
     <row r="5" customHeight="1" ht="12">
       <c r="A5" s="1" t="inlineStr"/>
@@ -407,7 +411,6 @@
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr"/>
       <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="inlineStr"/>
     </row>
     <row r="6" customHeight="1" ht="13">
       <c r="A6" s="7" t="inlineStr"/>
@@ -421,7 +424,6 @@
       <c r="I6" s="7" t="inlineStr"/>
       <c r="J6" s="7" t="inlineStr"/>
       <c r="K6" s="7" t="inlineStr"/>
-      <c r="L6" s="7" t="inlineStr"/>
     </row>
     <row r="7" customHeight="1" ht="20">
       <c r="A7" s="7" t="inlineStr"/>
@@ -432,34 +434,33 @@
           </r>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr"/>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD</t>
+          </r>
+        </is>
+      </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD</t>
-          </r>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">EUR</t>
           </r>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr"/>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr"/>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">GBP</t>
           </r>
         </is>
       </c>
+      <c r="G7" s="9" t="inlineStr"/>
       <c r="H7" s="9" t="inlineStr"/>
-      <c r="I7" s="9" t="inlineStr"/>
+      <c r="I7" s="7" t="inlineStr"/>
       <c r="J7" s="7" t="inlineStr"/>
       <c r="K7" s="7" t="inlineStr"/>
-      <c r="L7" s="7" t="inlineStr"/>
     </row>
     <row r="8" customHeight="1" ht="1">
       <c r="A8" s="10" t="inlineStr"/>
@@ -473,45 +474,43 @@
       <c r="I8" s="10" t="inlineStr"/>
       <c r="J8" s="10" t="inlineStr"/>
       <c r="K8" s="10" t="inlineStr"/>
-      <c r="L8" s="10" t="inlineStr"/>
     </row>
     <row r="9" customHeight="1" ht="19">
       <c r="A9" s="7" t="inlineStr"/>
       <c r="B9" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C9" s="12" t="inlineStr"/>
+            <t xml:space="preserve">28.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9078</t>
           </r>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr"/>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr"/>
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8145</t>
           </r>
         </is>
       </c>
+      <c r="G9" s="12" t="inlineStr"/>
       <c r="H9" s="12" t="inlineStr"/>
-      <c r="I9" s="12" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
       <c r="K9" s="7" t="inlineStr"/>
-      <c r="L9" s="7" t="inlineStr"/>
     </row>
     <row r="10" customHeight="1" ht="1">
       <c r="A10" s="7" t="inlineStr"/>
@@ -522,48 +521,46 @@
       <c r="F10" s="12" t="inlineStr"/>
       <c r="G10" s="12" t="inlineStr"/>
       <c r="H10" s="12" t="inlineStr"/>
-      <c r="I10" s="12" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
       <c r="K10" s="7" t="inlineStr"/>
-      <c r="L10" s="7" t="inlineStr"/>
     </row>
     <row r="11" customHeight="1" ht="19">
       <c r="A11" s="7" t="inlineStr"/>
       <c r="B11" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">27.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C11" s="12" t="inlineStr"/>
+            <t xml:space="preserve">27.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9098</t>
           </r>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr"/>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr"/>
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8152</t>
           </r>
         </is>
       </c>
+      <c r="G11" s="12" t="inlineStr"/>
       <c r="H11" s="12" t="inlineStr"/>
-      <c r="I11" s="12" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
       <c r="K11" s="7" t="inlineStr"/>
-      <c r="L11" s="7" t="inlineStr"/>
     </row>
     <row r="12" customHeight="1" ht="1">
       <c r="A12" s="7" t="inlineStr"/>
@@ -574,48 +571,46 @@
       <c r="F12" s="12" t="inlineStr"/>
       <c r="G12" s="12" t="inlineStr"/>
       <c r="H12" s="12" t="inlineStr"/>
-      <c r="I12" s="12" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
       <c r="K12" s="7" t="inlineStr"/>
-      <c r="L12" s="7" t="inlineStr"/>
     </row>
     <row r="13" customHeight="1" ht="19">
       <c r="A13" s="7" t="inlineStr"/>
       <c r="B13" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">26.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C13" s="12" t="inlineStr"/>
+            <t xml:space="preserve">26.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9112</t>
           </r>
         </is>
       </c>
-      <c r="F13" s="12" t="inlineStr"/>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="E13" s="12" t="inlineStr"/>
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8098</t>
           </r>
         </is>
       </c>
+      <c r="G13" s="12" t="inlineStr"/>
       <c r="H13" s="12" t="inlineStr"/>
-      <c r="I13" s="12" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
       <c r="K13" s="7" t="inlineStr"/>
-      <c r="L13" s="7" t="inlineStr"/>
     </row>
     <row r="14" customHeight="1" ht="1">
       <c r="A14" s="7" t="inlineStr"/>
@@ -626,48 +621,46 @@
       <c r="F14" s="12" t="inlineStr"/>
       <c r="G14" s="12" t="inlineStr"/>
       <c r="H14" s="12" t="inlineStr"/>
-      <c r="I14" s="12" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
       <c r="K14" s="7" t="inlineStr"/>
-      <c r="L14" s="7" t="inlineStr"/>
     </row>
     <row r="15" customHeight="1" ht="19">
       <c r="A15" s="7" t="inlineStr"/>
       <c r="B15" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C15" s="12" t="inlineStr"/>
+            <t xml:space="preserve">25.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9166</t>
           </r>
         </is>
       </c>
-      <c r="F15" s="12" t="inlineStr"/>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr"/>
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8205</t>
           </r>
         </is>
       </c>
+      <c r="G15" s="12" t="inlineStr"/>
       <c r="H15" s="12" t="inlineStr"/>
-      <c r="I15" s="12" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
       <c r="K15" s="7" t="inlineStr"/>
-      <c r="L15" s="7" t="inlineStr"/>
     </row>
     <row r="16" customHeight="1" ht="1">
       <c r="A16" s="7" t="inlineStr"/>
@@ -678,48 +671,46 @@
       <c r="F16" s="12" t="inlineStr"/>
       <c r="G16" s="12" t="inlineStr"/>
       <c r="H16" s="12" t="inlineStr"/>
-      <c r="I16" s="12" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
       <c r="K16" s="7" t="inlineStr"/>
-      <c r="L16" s="7" t="inlineStr"/>
     </row>
     <row r="17" customHeight="1" ht="19">
       <c r="A17" s="7" t="inlineStr"/>
       <c r="B17" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">24.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr"/>
+            <t xml:space="preserve">24.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D17" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9171</t>
           </r>
         </is>
       </c>
-      <c r="F17" s="12" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr"/>
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8214</t>
           </r>
         </is>
       </c>
+      <c r="G17" s="12" t="inlineStr"/>
       <c r="H17" s="12" t="inlineStr"/>
-      <c r="I17" s="12" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
       <c r="J17" s="7" t="inlineStr"/>
       <c r="K17" s="7" t="inlineStr"/>
-      <c r="L17" s="7" t="inlineStr"/>
     </row>
     <row r="18" customHeight="1" ht="1">
       <c r="A18" s="7" t="inlineStr"/>
@@ -730,48 +721,46 @@
       <c r="F18" s="12" t="inlineStr"/>
       <c r="G18" s="12" t="inlineStr"/>
       <c r="H18" s="12" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
       <c r="J18" s="7" t="inlineStr"/>
       <c r="K18" s="7" t="inlineStr"/>
-      <c r="L18" s="7" t="inlineStr"/>
     </row>
     <row r="19" customHeight="1" ht="19">
       <c r="A19" s="7" t="inlineStr"/>
       <c r="B19" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">23.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C19" s="12" t="inlineStr"/>
+            <t xml:space="preserve">23.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D19" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9171</t>
           </r>
         </is>
       </c>
-      <c r="F19" s="12" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr"/>
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8214</t>
           </r>
         </is>
       </c>
+      <c r="G19" s="12" t="inlineStr"/>
       <c r="H19" s="12" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
       <c r="J19" s="7" t="inlineStr"/>
       <c r="K19" s="7" t="inlineStr"/>
-      <c r="L19" s="7" t="inlineStr"/>
     </row>
     <row r="20" customHeight="1" ht="1">
       <c r="A20" s="7" t="inlineStr"/>
@@ -782,48 +771,46 @@
       <c r="F20" s="12" t="inlineStr"/>
       <c r="G20" s="12" t="inlineStr"/>
       <c r="H20" s="12" t="inlineStr"/>
-      <c r="I20" s="12" t="inlineStr"/>
+      <c r="I20" s="7" t="inlineStr"/>
       <c r="J20" s="7" t="inlineStr"/>
       <c r="K20" s="7" t="inlineStr"/>
-      <c r="L20" s="7" t="inlineStr"/>
     </row>
     <row r="21" customHeight="1" ht="19">
       <c r="A21" s="7" t="inlineStr"/>
       <c r="B21" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">22.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C21" s="12" t="inlineStr"/>
+            <t xml:space="preserve">22.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D21" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E21" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9171</t>
           </r>
         </is>
       </c>
-      <c r="F21" s="12" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="E21" s="12" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8214</t>
           </r>
         </is>
       </c>
+      <c r="G21" s="12" t="inlineStr"/>
       <c r="H21" s="12" t="inlineStr"/>
-      <c r="I21" s="12" t="inlineStr"/>
+      <c r="I21" s="7" t="inlineStr"/>
       <c r="J21" s="7" t="inlineStr"/>
       <c r="K21" s="7" t="inlineStr"/>
-      <c r="L21" s="7" t="inlineStr"/>
     </row>
     <row r="22" customHeight="1" ht="1">
       <c r="A22" s="7" t="inlineStr"/>
@@ -834,48 +821,46 @@
       <c r="F22" s="12" t="inlineStr"/>
       <c r="G22" s="12" t="inlineStr"/>
       <c r="H22" s="12" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
       <c r="J22" s="7" t="inlineStr"/>
       <c r="K22" s="7" t="inlineStr"/>
-      <c r="L22" s="7" t="inlineStr"/>
     </row>
     <row r="23" customHeight="1" ht="19">
       <c r="A23" s="7" t="inlineStr"/>
       <c r="B23" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">21.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C23" s="12" t="inlineStr"/>
+            <t xml:space="preserve">21.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C23" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9091</t>
           </r>
         </is>
       </c>
-      <c r="F23" s="12" t="inlineStr"/>
-      <c r="G23" s="11" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8177</t>
           </r>
         </is>
       </c>
+      <c r="G23" s="12" t="inlineStr"/>
       <c r="H23" s="12" t="inlineStr"/>
-      <c r="I23" s="12" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
       <c r="J23" s="7" t="inlineStr"/>
       <c r="K23" s="7" t="inlineStr"/>
-      <c r="L23" s="7" t="inlineStr"/>
     </row>
     <row r="24" customHeight="1" ht="1">
       <c r="A24" s="7" t="inlineStr"/>
@@ -886,48 +871,46 @@
       <c r="F24" s="12" t="inlineStr"/>
       <c r="G24" s="12" t="inlineStr"/>
       <c r="H24" s="12" t="inlineStr"/>
-      <c r="I24" s="12" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
       <c r="J24" s="7" t="inlineStr"/>
       <c r="K24" s="7" t="inlineStr"/>
-      <c r="L24" s="7" t="inlineStr"/>
     </row>
     <row r="25" customHeight="1" ht="19">
       <c r="A25" s="7" t="inlineStr"/>
       <c r="B25" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C25" s="12" t="inlineStr"/>
+            <t xml:space="preserve">20.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D25" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9126</t>
           </r>
         </is>
       </c>
-      <c r="F25" s="12" t="inlineStr"/>
-      <c r="G25" s="11" t="inlineStr">
+      <c r="E25" s="12" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8155</t>
           </r>
         </is>
       </c>
+      <c r="G25" s="12" t="inlineStr"/>
       <c r="H25" s="12" t="inlineStr"/>
-      <c r="I25" s="12" t="inlineStr"/>
+      <c r="I25" s="7" t="inlineStr"/>
       <c r="J25" s="7" t="inlineStr"/>
       <c r="K25" s="7" t="inlineStr"/>
-      <c r="L25" s="7" t="inlineStr"/>
     </row>
     <row r="26" customHeight="1" ht="1">
       <c r="A26" s="7" t="inlineStr"/>
@@ -938,48 +921,46 @@
       <c r="F26" s="12" t="inlineStr"/>
       <c r="G26" s="12" t="inlineStr"/>
       <c r="H26" s="12" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr"/>
+      <c r="I26" s="7" t="inlineStr"/>
       <c r="J26" s="7" t="inlineStr"/>
       <c r="K26" s="7" t="inlineStr"/>
-      <c r="L26" s="7" t="inlineStr"/>
     </row>
     <row r="27" customHeight="1" ht="19">
       <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C27" s="12" t="inlineStr"/>
+            <t xml:space="preserve">19.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9132</t>
           </r>
         </is>
       </c>
-      <c r="F27" s="12" t="inlineStr"/>
-      <c r="G27" s="11" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr"/>
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8177</t>
           </r>
         </is>
       </c>
+      <c r="G27" s="12" t="inlineStr"/>
       <c r="H27" s="12" t="inlineStr"/>
-      <c r="I27" s="12" t="inlineStr"/>
+      <c r="I27" s="7" t="inlineStr"/>
       <c r="J27" s="7" t="inlineStr"/>
       <c r="K27" s="7" t="inlineStr"/>
-      <c r="L27" s="7" t="inlineStr"/>
     </row>
     <row r="28" customHeight="1" ht="1">
       <c r="A28" s="7" t="inlineStr"/>
@@ -990,48 +971,46 @@
       <c r="F28" s="12" t="inlineStr"/>
       <c r="G28" s="12" t="inlineStr"/>
       <c r="H28" s="12" t="inlineStr"/>
-      <c r="I28" s="12" t="inlineStr"/>
+      <c r="I28" s="7" t="inlineStr"/>
       <c r="J28" s="7" t="inlineStr"/>
       <c r="K28" s="7" t="inlineStr"/>
-      <c r="L28" s="7" t="inlineStr"/>
     </row>
     <row r="29" customHeight="1" ht="19">
       <c r="A29" s="7" t="inlineStr"/>
       <c r="B29" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C29" s="12" t="inlineStr"/>
+            <t xml:space="preserve">18.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E29" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9232</t>
           </r>
         </is>
       </c>
-      <c r="F29" s="12" t="inlineStr"/>
-      <c r="G29" s="11" t="inlineStr">
+      <c r="E29" s="12" t="inlineStr"/>
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8231</t>
           </r>
         </is>
       </c>
+      <c r="G29" s="12" t="inlineStr"/>
       <c r="H29" s="12" t="inlineStr"/>
-      <c r="I29" s="12" t="inlineStr"/>
+      <c r="I29" s="7" t="inlineStr"/>
       <c r="J29" s="7" t="inlineStr"/>
       <c r="K29" s="7" t="inlineStr"/>
-      <c r="L29" s="7" t="inlineStr"/>
     </row>
     <row r="30" customHeight="1" ht="1">
       <c r="A30" s="7" t="inlineStr"/>
@@ -1042,48 +1021,46 @@
       <c r="F30" s="12" t="inlineStr"/>
       <c r="G30" s="12" t="inlineStr"/>
       <c r="H30" s="12" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr"/>
+      <c r="I30" s="7" t="inlineStr"/>
       <c r="J30" s="7" t="inlineStr"/>
       <c r="K30" s="7" t="inlineStr"/>
-      <c r="L30" s="7" t="inlineStr"/>
     </row>
     <row r="31" customHeight="1" ht="19">
       <c r="A31" s="7" t="inlineStr"/>
       <c r="B31" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C31" s="12" t="inlineStr"/>
+            <t xml:space="preserve">17.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D31" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9261</t>
           </r>
         </is>
       </c>
-      <c r="F31" s="12" t="inlineStr"/>
-      <c r="G31" s="11" t="inlineStr">
+      <c r="E31" s="12" t="inlineStr"/>
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8218</t>
           </r>
         </is>
       </c>
+      <c r="G31" s="12" t="inlineStr"/>
       <c r="H31" s="12" t="inlineStr"/>
-      <c r="I31" s="12" t="inlineStr"/>
+      <c r="I31" s="7" t="inlineStr"/>
       <c r="J31" s="7" t="inlineStr"/>
       <c r="K31" s="7" t="inlineStr"/>
-      <c r="L31" s="7" t="inlineStr"/>
     </row>
     <row r="32" customHeight="1" ht="1">
       <c r="A32" s="7" t="inlineStr"/>
@@ -1094,48 +1071,46 @@
       <c r="F32" s="12" t="inlineStr"/>
       <c r="G32" s="12" t="inlineStr"/>
       <c r="H32" s="12" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr"/>
+      <c r="I32" s="7" t="inlineStr"/>
       <c r="J32" s="7" t="inlineStr"/>
       <c r="K32" s="7" t="inlineStr"/>
-      <c r="L32" s="7" t="inlineStr"/>
     </row>
     <row r="33" customHeight="1" ht="19">
       <c r="A33" s="7" t="inlineStr"/>
       <c r="B33" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C33" s="12" t="inlineStr"/>
+            <t xml:space="preserve">16.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D33" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E33" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9261</t>
           </r>
         </is>
       </c>
-      <c r="F33" s="12" t="inlineStr"/>
-      <c r="G33" s="11" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8218</t>
           </r>
         </is>
       </c>
+      <c r="G33" s="12" t="inlineStr"/>
       <c r="H33" s="12" t="inlineStr"/>
-      <c r="I33" s="12" t="inlineStr"/>
+      <c r="I33" s="7" t="inlineStr"/>
       <c r="J33" s="7" t="inlineStr"/>
       <c r="K33" s="7" t="inlineStr"/>
-      <c r="L33" s="7" t="inlineStr"/>
     </row>
     <row r="34" customHeight="1" ht="1">
       <c r="A34" s="7" t="inlineStr"/>
@@ -1146,48 +1121,46 @@
       <c r="F34" s="12" t="inlineStr"/>
       <c r="G34" s="12" t="inlineStr"/>
       <c r="H34" s="12" t="inlineStr"/>
-      <c r="I34" s="12" t="inlineStr"/>
+      <c r="I34" s="7" t="inlineStr"/>
       <c r="J34" s="7" t="inlineStr"/>
       <c r="K34" s="7" t="inlineStr"/>
-      <c r="L34" s="7" t="inlineStr"/>
     </row>
     <row r="35" customHeight="1" ht="19">
       <c r="A35" s="7" t="inlineStr"/>
       <c r="B35" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">15.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr"/>
+            <t xml:space="preserve">15.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C35" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D35" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9261</t>
           </r>
         </is>
       </c>
-      <c r="F35" s="12" t="inlineStr"/>
-      <c r="G35" s="11" t="inlineStr">
+      <c r="E35" s="12" t="inlineStr"/>
+      <c r="F35" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8218</t>
           </r>
         </is>
       </c>
+      <c r="G35" s="12" t="inlineStr"/>
       <c r="H35" s="12" t="inlineStr"/>
-      <c r="I35" s="12" t="inlineStr"/>
+      <c r="I35" s="7" t="inlineStr"/>
       <c r="J35" s="7" t="inlineStr"/>
       <c r="K35" s="7" t="inlineStr"/>
-      <c r="L35" s="7" t="inlineStr"/>
     </row>
     <row r="36" customHeight="1" ht="1">
       <c r="A36" s="7" t="inlineStr"/>
@@ -1198,48 +1171,46 @@
       <c r="F36" s="12" t="inlineStr"/>
       <c r="G36" s="12" t="inlineStr"/>
       <c r="H36" s="12" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr"/>
+      <c r="I36" s="7" t="inlineStr"/>
       <c r="J36" s="7" t="inlineStr"/>
       <c r="K36" s="7" t="inlineStr"/>
-      <c r="L36" s="7" t="inlineStr"/>
     </row>
     <row r="37" customHeight="1" ht="19">
       <c r="A37" s="7" t="inlineStr"/>
       <c r="B37" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">14.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr"/>
+            <t xml:space="preserve">14.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D37" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9266</t>
           </r>
         </is>
       </c>
-      <c r="F37" s="12" t="inlineStr"/>
-      <c r="G37" s="11" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr"/>
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.82</t>
           </r>
         </is>
       </c>
+      <c r="G37" s="12" t="inlineStr"/>
       <c r="H37" s="12" t="inlineStr"/>
-      <c r="I37" s="12" t="inlineStr"/>
+      <c r="I37" s="7" t="inlineStr"/>
       <c r="J37" s="7" t="inlineStr"/>
       <c r="K37" s="7" t="inlineStr"/>
-      <c r="L37" s="7" t="inlineStr"/>
     </row>
     <row r="38" customHeight="1" ht="1">
       <c r="A38" s="7" t="inlineStr"/>
@@ -1250,48 +1221,46 @@
       <c r="F38" s="12" t="inlineStr"/>
       <c r="G38" s="12" t="inlineStr"/>
       <c r="H38" s="12" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr"/>
+      <c r="I38" s="7" t="inlineStr"/>
       <c r="J38" s="7" t="inlineStr"/>
       <c r="K38" s="7" t="inlineStr"/>
-      <c r="L38" s="7" t="inlineStr"/>
     </row>
     <row r="39" customHeight="1" ht="19">
       <c r="A39" s="7" t="inlineStr"/>
       <c r="B39" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr"/>
+            <t xml:space="preserve">13.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C39" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D39" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E39" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9195</t>
           </r>
         </is>
       </c>
-      <c r="F39" s="12" t="inlineStr"/>
-      <c r="G39" s="11" t="inlineStr">
+      <c r="E39" s="12" t="inlineStr"/>
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8114</t>
           </r>
         </is>
       </c>
+      <c r="G39" s="12" t="inlineStr"/>
       <c r="H39" s="12" t="inlineStr"/>
-      <c r="I39" s="12" t="inlineStr"/>
+      <c r="I39" s="7" t="inlineStr"/>
       <c r="J39" s="7" t="inlineStr"/>
       <c r="K39" s="7" t="inlineStr"/>
-      <c r="L39" s="7" t="inlineStr"/>
     </row>
     <row r="40" customHeight="1" ht="1">
       <c r="A40" s="7" t="inlineStr"/>
@@ -1302,48 +1271,46 @@
       <c r="F40" s="12" t="inlineStr"/>
       <c r="G40" s="12" t="inlineStr"/>
       <c r="H40" s="12" t="inlineStr"/>
-      <c r="I40" s="12" t="inlineStr"/>
+      <c r="I40" s="7" t="inlineStr"/>
       <c r="J40" s="7" t="inlineStr"/>
       <c r="K40" s="7" t="inlineStr"/>
-      <c r="L40" s="7" t="inlineStr"/>
     </row>
     <row r="41" customHeight="1" ht="19">
       <c r="A41" s="7" t="inlineStr"/>
       <c r="B41" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr"/>
+            <t xml:space="preserve">12.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C41" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D41" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E41" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.921</t>
           </r>
         </is>
       </c>
-      <c r="F41" s="12" t="inlineStr"/>
-      <c r="G41" s="11" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr"/>
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8084</t>
           </r>
         </is>
       </c>
+      <c r="G41" s="12" t="inlineStr"/>
       <c r="H41" s="12" t="inlineStr"/>
-      <c r="I41" s="12" t="inlineStr"/>
+      <c r="I41" s="7" t="inlineStr"/>
       <c r="J41" s="7" t="inlineStr"/>
       <c r="K41" s="7" t="inlineStr"/>
-      <c r="L41" s="7" t="inlineStr"/>
     </row>
     <row r="42" customHeight="1" ht="1">
       <c r="A42" s="7" t="inlineStr"/>
@@ -1354,48 +1321,46 @@
       <c r="F42" s="12" t="inlineStr"/>
       <c r="G42" s="12" t="inlineStr"/>
       <c r="H42" s="12" t="inlineStr"/>
-      <c r="I42" s="12" t="inlineStr"/>
+      <c r="I42" s="7" t="inlineStr"/>
       <c r="J42" s="7" t="inlineStr"/>
       <c r="K42" s="7" t="inlineStr"/>
-      <c r="L42" s="7" t="inlineStr"/>
     </row>
     <row r="43" customHeight="1" ht="19">
       <c r="A43" s="7" t="inlineStr"/>
       <c r="B43" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C43" s="12" t="inlineStr"/>
+            <t xml:space="preserve">11.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C43" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D43" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E43" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9239</t>
           </r>
         </is>
       </c>
-      <c r="F43" s="12" t="inlineStr"/>
-      <c r="G43" s="11" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr"/>
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8119</t>
           </r>
         </is>
       </c>
+      <c r="G43" s="12" t="inlineStr"/>
       <c r="H43" s="12" t="inlineStr"/>
-      <c r="I43" s="12" t="inlineStr"/>
+      <c r="I43" s="7" t="inlineStr"/>
       <c r="J43" s="7" t="inlineStr"/>
       <c r="K43" s="7" t="inlineStr"/>
-      <c r="L43" s="7" t="inlineStr"/>
     </row>
     <row r="44" customHeight="1" ht="1">
       <c r="A44" s="7" t="inlineStr"/>
@@ -1406,48 +1371,46 @@
       <c r="F44" s="12" t="inlineStr"/>
       <c r="G44" s="12" t="inlineStr"/>
       <c r="H44" s="12" t="inlineStr"/>
-      <c r="I44" s="12" t="inlineStr"/>
+      <c r="I44" s="7" t="inlineStr"/>
       <c r="J44" s="7" t="inlineStr"/>
       <c r="K44" s="7" t="inlineStr"/>
-      <c r="L44" s="7" t="inlineStr"/>
     </row>
     <row r="45" customHeight="1" ht="19">
       <c r="A45" s="7" t="inlineStr"/>
       <c r="B45" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C45" s="12" t="inlineStr"/>
+            <t xml:space="preserve">10.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C45" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D45" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E45" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9223</t>
           </r>
         </is>
       </c>
-      <c r="F45" s="12" t="inlineStr"/>
-      <c r="G45" s="11" t="inlineStr">
+      <c r="E45" s="12" t="inlineStr"/>
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8073</t>
           </r>
         </is>
       </c>
+      <c r="G45" s="12" t="inlineStr"/>
       <c r="H45" s="12" t="inlineStr"/>
-      <c r="I45" s="12" t="inlineStr"/>
+      <c r="I45" s="7" t="inlineStr"/>
       <c r="J45" s="7" t="inlineStr"/>
       <c r="K45" s="7" t="inlineStr"/>
-      <c r="L45" s="7" t="inlineStr"/>
     </row>
     <row r="46" customHeight="1" ht="1">
       <c r="A46" s="7" t="inlineStr"/>
@@ -1458,48 +1421,46 @@
       <c r="F46" s="12" t="inlineStr"/>
       <c r="G46" s="12" t="inlineStr"/>
       <c r="H46" s="12" t="inlineStr"/>
-      <c r="I46" s="12" t="inlineStr"/>
+      <c r="I46" s="7" t="inlineStr"/>
       <c r="J46" s="7" t="inlineStr"/>
       <c r="K46" s="7" t="inlineStr"/>
-      <c r="L46" s="7" t="inlineStr"/>
     </row>
     <row r="47" customHeight="1" ht="19">
       <c r="A47" s="7" t="inlineStr"/>
       <c r="B47" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C47" s="12" t="inlineStr"/>
+            <t xml:space="preserve">09.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C47" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D47" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E47" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9223</t>
           </r>
         </is>
       </c>
-      <c r="F47" s="12" t="inlineStr"/>
-      <c r="G47" s="11" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr"/>
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8073</t>
           </r>
         </is>
       </c>
+      <c r="G47" s="12" t="inlineStr"/>
       <c r="H47" s="12" t="inlineStr"/>
-      <c r="I47" s="12" t="inlineStr"/>
+      <c r="I47" s="7" t="inlineStr"/>
       <c r="J47" s="7" t="inlineStr"/>
       <c r="K47" s="7" t="inlineStr"/>
-      <c r="L47" s="7" t="inlineStr"/>
     </row>
     <row r="48" customHeight="1" ht="1">
       <c r="A48" s="7" t="inlineStr"/>
@@ -1510,48 +1471,46 @@
       <c r="F48" s="12" t="inlineStr"/>
       <c r="G48" s="12" t="inlineStr"/>
       <c r="H48" s="12" t="inlineStr"/>
-      <c r="I48" s="12" t="inlineStr"/>
+      <c r="I48" s="7" t="inlineStr"/>
       <c r="J48" s="7" t="inlineStr"/>
       <c r="K48" s="7" t="inlineStr"/>
-      <c r="L48" s="7" t="inlineStr"/>
     </row>
     <row r="49" customHeight="1" ht="19">
       <c r="A49" s="7" t="inlineStr"/>
       <c r="B49" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C49" s="12" t="inlineStr"/>
+            <t xml:space="preserve">08.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D49" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E49" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9223</t>
           </r>
         </is>
       </c>
-      <c r="F49" s="12" t="inlineStr"/>
-      <c r="G49" s="11" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr"/>
+      <c r="F49" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8073</t>
           </r>
         </is>
       </c>
+      <c r="G49" s="12" t="inlineStr"/>
       <c r="H49" s="12" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr"/>
+      <c r="I49" s="7" t="inlineStr"/>
       <c r="J49" s="7" t="inlineStr"/>
       <c r="K49" s="7" t="inlineStr"/>
-      <c r="L49" s="7" t="inlineStr"/>
     </row>
     <row r="50" customHeight="1" ht="1">
       <c r="A50" s="7" t="inlineStr"/>
@@ -1562,48 +1521,46 @@
       <c r="F50" s="12" t="inlineStr"/>
       <c r="G50" s="12" t="inlineStr"/>
       <c r="H50" s="12" t="inlineStr"/>
-      <c r="I50" s="12" t="inlineStr"/>
+      <c r="I50" s="7" t="inlineStr"/>
       <c r="J50" s="7" t="inlineStr"/>
       <c r="K50" s="7" t="inlineStr"/>
-      <c r="L50" s="7" t="inlineStr"/>
     </row>
     <row r="51" customHeight="1" ht="19">
       <c r="A51" s="7" t="inlineStr"/>
       <c r="B51" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C51" s="12" t="inlineStr"/>
+            <t xml:space="preserve">07.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C51" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D51" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E51" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9274</t>
           </r>
         </is>
       </c>
-      <c r="F51" s="12" t="inlineStr"/>
-      <c r="G51" s="11" t="inlineStr">
+      <c r="E51" s="12" t="inlineStr"/>
+      <c r="F51" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8113</t>
           </r>
         </is>
       </c>
+      <c r="G51" s="12" t="inlineStr"/>
       <c r="H51" s="12" t="inlineStr"/>
-      <c r="I51" s="12" t="inlineStr"/>
+      <c r="I51" s="7" t="inlineStr"/>
       <c r="J51" s="7" t="inlineStr"/>
       <c r="K51" s="7" t="inlineStr"/>
-      <c r="L51" s="7" t="inlineStr"/>
     </row>
     <row r="52" customHeight="1" ht="1">
       <c r="A52" s="7" t="inlineStr"/>
@@ -1614,48 +1571,46 @@
       <c r="F52" s="12" t="inlineStr"/>
       <c r="G52" s="12" t="inlineStr"/>
       <c r="H52" s="12" t="inlineStr"/>
-      <c r="I52" s="12" t="inlineStr"/>
+      <c r="I52" s="7" t="inlineStr"/>
       <c r="J52" s="7" t="inlineStr"/>
       <c r="K52" s="7" t="inlineStr"/>
-      <c r="L52" s="7" t="inlineStr"/>
     </row>
     <row r="53" customHeight="1" ht="19">
       <c r="A53" s="7" t="inlineStr"/>
       <c r="B53" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C53" s="12" t="inlineStr"/>
+            <t xml:space="preserve">06.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C53" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D53" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E53" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9253</t>
           </r>
         </is>
       </c>
-      <c r="F53" s="12" t="inlineStr"/>
-      <c r="G53" s="11" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr"/>
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8074</t>
           </r>
         </is>
       </c>
+      <c r="G53" s="12" t="inlineStr"/>
       <c r="H53" s="12" t="inlineStr"/>
-      <c r="I53" s="12" t="inlineStr"/>
+      <c r="I53" s="7" t="inlineStr"/>
       <c r="J53" s="7" t="inlineStr"/>
       <c r="K53" s="7" t="inlineStr"/>
-      <c r="L53" s="7" t="inlineStr"/>
     </row>
     <row r="54" customHeight="1" ht="1">
       <c r="A54" s="7" t="inlineStr"/>
@@ -1666,48 +1621,46 @@
       <c r="F54" s="12" t="inlineStr"/>
       <c r="G54" s="12" t="inlineStr"/>
       <c r="H54" s="12" t="inlineStr"/>
-      <c r="I54" s="12" t="inlineStr"/>
+      <c r="I54" s="7" t="inlineStr"/>
       <c r="J54" s="7" t="inlineStr"/>
       <c r="K54" s="7" t="inlineStr"/>
-      <c r="L54" s="7" t="inlineStr"/>
     </row>
     <row r="55" customHeight="1" ht="19">
       <c r="A55" s="7" t="inlineStr"/>
       <c r="B55" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">05.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C55" s="12" t="inlineStr"/>
+            <t xml:space="preserve">05.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C55" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D55" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E55" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9223</t>
           </r>
         </is>
       </c>
-      <c r="F55" s="12" t="inlineStr"/>
-      <c r="G55" s="11" t="inlineStr">
+      <c r="E55" s="12" t="inlineStr"/>
+      <c r="F55" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8029</t>
           </r>
         </is>
       </c>
+      <c r="G55" s="12" t="inlineStr"/>
       <c r="H55" s="12" t="inlineStr"/>
-      <c r="I55" s="12" t="inlineStr"/>
+      <c r="I55" s="7" t="inlineStr"/>
       <c r="J55" s="7" t="inlineStr"/>
       <c r="K55" s="7" t="inlineStr"/>
-      <c r="L55" s="7" t="inlineStr"/>
     </row>
     <row r="56" customHeight="1" ht="1">
       <c r="A56" s="7" t="inlineStr"/>
@@ -1718,48 +1671,46 @@
       <c r="F56" s="12" t="inlineStr"/>
       <c r="G56" s="12" t="inlineStr"/>
       <c r="H56" s="12" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr"/>
+      <c r="I56" s="7" t="inlineStr"/>
       <c r="J56" s="7" t="inlineStr"/>
       <c r="K56" s="7" t="inlineStr"/>
-      <c r="L56" s="7" t="inlineStr"/>
     </row>
     <row r="57" customHeight="1" ht="19">
       <c r="A57" s="7" t="inlineStr"/>
       <c r="B57" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">04.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C57" s="12" t="inlineStr"/>
+            <t xml:space="preserve">04.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C57" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D57" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E57" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9139</t>
           </r>
         </is>
       </c>
-      <c r="F57" s="12" t="inlineStr"/>
-      <c r="G57" s="11" t="inlineStr">
+      <c r="E57" s="12" t="inlineStr"/>
+      <c r="F57" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.8033</t>
           </r>
         </is>
       </c>
+      <c r="G57" s="12" t="inlineStr"/>
       <c r="H57" s="12" t="inlineStr"/>
-      <c r="I57" s="12" t="inlineStr"/>
+      <c r="I57" s="7" t="inlineStr"/>
       <c r="J57" s="7" t="inlineStr"/>
       <c r="K57" s="7" t="inlineStr"/>
-      <c r="L57" s="7" t="inlineStr"/>
     </row>
     <row r="58" customHeight="1" ht="1">
       <c r="A58" s="7" t="inlineStr"/>
@@ -1770,48 +1721,46 @@
       <c r="F58" s="12" t="inlineStr"/>
       <c r="G58" s="12" t="inlineStr"/>
       <c r="H58" s="12" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr"/>
+      <c r="I58" s="7" t="inlineStr"/>
       <c r="J58" s="7" t="inlineStr"/>
       <c r="K58" s="7" t="inlineStr"/>
-      <c r="L58" s="7" t="inlineStr"/>
     </row>
     <row r="59" customHeight="1" ht="19">
       <c r="A59" s="7" t="inlineStr"/>
       <c r="B59" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">03.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr"/>
+            <t xml:space="preserve">03.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C59" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D59" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E59" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9195</t>
           </r>
         </is>
       </c>
-      <c r="F59" s="12" t="inlineStr"/>
-      <c r="G59" s="11" t="inlineStr">
+      <c r="E59" s="12" t="inlineStr"/>
+      <c r="F59" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.7991</t>
           </r>
         </is>
       </c>
+      <c r="G59" s="12" t="inlineStr"/>
       <c r="H59" s="12" t="inlineStr"/>
-      <c r="I59" s="12" t="inlineStr"/>
+      <c r="I59" s="7" t="inlineStr"/>
       <c r="J59" s="7" t="inlineStr"/>
       <c r="K59" s="7" t="inlineStr"/>
-      <c r="L59" s="7" t="inlineStr"/>
     </row>
     <row r="60" customHeight="1" ht="1">
       <c r="A60" s="7" t="inlineStr"/>
@@ -1822,48 +1771,46 @@
       <c r="F60" s="12" t="inlineStr"/>
       <c r="G60" s="12" t="inlineStr"/>
       <c r="H60" s="12" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr"/>
+      <c r="I60" s="7" t="inlineStr"/>
       <c r="J60" s="7" t="inlineStr"/>
       <c r="K60" s="7" t="inlineStr"/>
-      <c r="L60" s="7" t="inlineStr"/>
     </row>
     <row r="61" customHeight="1" ht="19">
       <c r="A61" s="7" t="inlineStr"/>
       <c r="B61" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C61" s="12" t="inlineStr"/>
+            <t xml:space="preserve">02.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C61" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D61" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E61" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9195</t>
           </r>
         </is>
       </c>
-      <c r="F61" s="12" t="inlineStr"/>
-      <c r="G61" s="11" t="inlineStr">
+      <c r="E61" s="12" t="inlineStr"/>
+      <c r="F61" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.7991</t>
           </r>
         </is>
       </c>
+      <c r="G61" s="12" t="inlineStr"/>
       <c r="H61" s="12" t="inlineStr"/>
-      <c r="I61" s="12" t="inlineStr"/>
+      <c r="I61" s="7" t="inlineStr"/>
       <c r="J61" s="7" t="inlineStr"/>
       <c r="K61" s="7" t="inlineStr"/>
-      <c r="L61" s="7" t="inlineStr"/>
     </row>
     <row r="62" customHeight="1" ht="1">
       <c r="A62" s="7" t="inlineStr"/>
@@ -1874,48 +1821,46 @@
       <c r="F62" s="12" t="inlineStr"/>
       <c r="G62" s="12" t="inlineStr"/>
       <c r="H62" s="12" t="inlineStr"/>
-      <c r="I62" s="12" t="inlineStr"/>
+      <c r="I62" s="7" t="inlineStr"/>
       <c r="J62" s="7" t="inlineStr"/>
       <c r="K62" s="7" t="inlineStr"/>
-      <c r="L62" s="7" t="inlineStr"/>
     </row>
     <row r="63" customHeight="1" ht="19">
       <c r="A63" s="7" t="inlineStr"/>
       <c r="B63" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01.05.2020</t>
-          </r>
-        </is>
-      </c>
-      <c r="C63" s="12" t="inlineStr"/>
+            <t xml:space="preserve">01.05.20 3:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="C63" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
       <c r="D63" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="E63" s="11" t="inlineStr">
-        <is>
-          <r>
             <t xml:space="preserve">0.9195</t>
           </r>
         </is>
       </c>
-      <c r="F63" s="12" t="inlineStr"/>
-      <c r="G63" s="11" t="inlineStr">
+      <c r="E63" s="12" t="inlineStr"/>
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">0.7991</t>
           </r>
         </is>
       </c>
+      <c r="G63" s="12" t="inlineStr"/>
       <c r="H63" s="12" t="inlineStr"/>
-      <c r="I63" s="12" t="inlineStr"/>
+      <c r="I63" s="7" t="inlineStr"/>
       <c r="J63" s="7" t="inlineStr"/>
       <c r="K63" s="7" t="inlineStr"/>
-      <c r="L63" s="7" t="inlineStr"/>
     </row>
     <row r="64" customHeight="1" ht="1">
       <c r="A64" s="7" t="inlineStr"/>
@@ -1926,10 +1871,9 @@
       <c r="F64" s="12" t="inlineStr"/>
       <c r="G64" s="12" t="inlineStr"/>
       <c r="H64" s="12" t="inlineStr"/>
-      <c r="I64" s="12" t="inlineStr"/>
+      <c r="I64" s="7" t="inlineStr"/>
       <c r="J64" s="7" t="inlineStr"/>
       <c r="K64" s="7" t="inlineStr"/>
-      <c r="L64" s="7" t="inlineStr"/>
     </row>
     <row r="65" customHeight="1" ht="123">
       <c r="A65" s="7" t="inlineStr"/>
@@ -1943,33 +1887,31 @@
       <c r="I65" s="7" t="inlineStr"/>
       <c r="J65" s="7" t="inlineStr"/>
       <c r="K65" s="7" t="inlineStr"/>
-      <c r="L65" s="7" t="inlineStr"/>
     </row>
     <row r="66" customHeight="1" ht="13">
       <c r="A66" s="7" t="inlineStr"/>
       <c r="B66" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">пятница 05 Июнь </t>
-          </r>
-        </is>
-      </c>
-      <c r="C66" s="7" t="inlineStr"/>
-      <c r="D66" s="7" t="inlineStr"/>
-      <c r="E66" s="7" t="inlineStr"/>
-      <c r="F66" s="7" t="inlineStr"/>
-      <c r="G66" s="7" t="inlineStr"/>
-      <c r="H66" s="7" t="inlineStr"/>
-      <c r="I66" s="14" t="inlineStr">
+            <t xml:space="preserve">Page 1 of</t>
+          </r>
+        </is>
+      </c>
+      <c r="C66" s="14" t="inlineStr"/>
+      <c r="D66" s="14" t="inlineStr"/>
+      <c r="E66" s="14" t="inlineStr"/>
+      <c r="F66" s="14" t="inlineStr"/>
+      <c r="G66" s="14" t="inlineStr"/>
+      <c r="H66" s="15" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve"> 1</t>
           </r>
         </is>
       </c>
-      <c r="J66" s="15" t="inlineStr"/>
+      <c r="I66" s="16" t="inlineStr"/>
+      <c r="J66" s="7" t="inlineStr"/>
       <c r="K66" s="7" t="inlineStr"/>
-      <c r="L66" s="7" t="inlineStr"/>
     </row>
     <row r="67" customHeight="1" ht="20">
       <c r="A67" s="7" t="inlineStr"/>
@@ -1983,129 +1925,128 @@
       <c r="I67" s="7" t="inlineStr"/>
       <c r="J67" s="7" t="inlineStr"/>
       <c r="K67" s="7" t="inlineStr"/>
-      <c r="L67" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:I16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:I18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:I38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:I40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:I44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:I46"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:I48"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:I50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="G51:I52"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:I56"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G57:I58"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="G59:I60"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:I62"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:H32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:H34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:H40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="F45:H46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="F47:H48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:H50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="F53:H54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:H56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="F57:H58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F61:H62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="F63:H64"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:I66"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
